--- a/results/Sobol_floor.xlsx
+++ b/results/Sobol_floor.xlsx
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.01459221385184326</v>
+        <v>0.01461924753161141</v>
       </c>
       <c r="E2" t="n">
-        <v>0.016738160543716</v>
+        <v>0.01673693490442242</v>
       </c>
     </row>
     <row r="3">
@@ -500,10 +500,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8797786547632501</v>
+        <v>0.8796979895344836</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8931082377983774</v>
+        <v>0.893129339858738</v>
       </c>
     </row>
     <row r="4">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.0919631317024296</v>
+        <v>0.09189814616247555</v>
       </c>
       <c r="E5" t="n">
-        <v>0.103777158428233</v>
+        <v>0.1037904826815921</v>
       </c>
     </row>
     <row r="6">
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.01896893209636812</v>
+        <v>0.01900100577066676</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02172510377552512</v>
+        <v>0.0217237249000392</v>
       </c>
     </row>
     <row r="7">
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8539259051025767</v>
+        <v>0.8538293051498766</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8701268708366682</v>
+        <v>0.8701441440753968</v>
       </c>
     </row>
     <row r="8">
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.1105113275815401</v>
+        <v>0.1104385435611507</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1247071945630209</v>
+        <v>0.1247238626047039</v>
       </c>
     </row>
     <row r="10">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.005273474241038383</v>
+        <v>0.005210579595982059</v>
       </c>
       <c r="E10" t="n">
-        <v>0.008523221490811106</v>
+        <v>0.008524840473258334</v>
       </c>
     </row>
     <row r="11">
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.09794483493042444</v>
+        <v>0.09733113540048553</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1983402189123991</v>
+        <v>0.1979513250921986</v>
       </c>
     </row>
     <row r="12">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.7942099080001521</v>
+        <v>0.7938876914519443</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8962393277888808</v>
+        <v>0.8961839906761839</v>
       </c>
     </row>
     <row r="14">
@@ -753,10 +753,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.001649526125619752</v>
+        <v>0.001657220439956856</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001960597625811803</v>
+        <v>0.001960258524707176</v>
       </c>
     </row>
     <row r="15">
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.9649054440560361</v>
+        <v>0.9648783850459738</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9687870815852413</v>
+        <v>0.9688099448834775</v>
       </c>
     </row>
     <row r="16">
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.02942981985439536</v>
+        <v>0.02939793738827345</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03321274356281213</v>
+        <v>0.03321626715952269</v>
       </c>
     </row>
     <row r="18">
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.002730195703890663</v>
+        <v>0.002740646409728978</v>
       </c>
       <c r="E18" t="n">
-        <v>0.003247807232797463</v>
+        <v>0.003247252486270731</v>
       </c>
     </row>
     <row r="19">
@@ -868,10 +868,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.9398243308664532</v>
+        <v>0.9397802446969667</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9464905144946231</v>
+        <v>0.9465135563929932</v>
       </c>
     </row>
     <row r="20">
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.0505766153279481</v>
+        <v>0.05053261819523526</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05707627495930222</v>
+        <v>0.05708265912962578</v>
       </c>
     </row>
     <row r="22">
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.008943914308627558</v>
+        <v>0.008965444939015965</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01049602900501898</v>
+        <v>0.01049463126661137</v>
       </c>
     </row>
     <row r="23">
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.8462060743087194</v>
+        <v>0.8460965563452146</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8632726476045717</v>
+        <v>0.8632789534005977</v>
       </c>
     </row>
     <row r="24">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.1273465840069123</v>
+        <v>0.1272690953022075</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1437068646259033</v>
+        <v>0.1437249956881805</v>
       </c>
     </row>
     <row r="26">
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.01436614532512573</v>
+        <v>0.01439372980220146</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01654777313321594</v>
+        <v>0.01654638095679115</v>
       </c>
     </row>
     <row r="27">
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.8579554280704256</v>
+        <v>0.857858565361781</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8737113039802843</v>
+        <v>0.8737262793457853</v>
       </c>
     </row>
     <row r="28">
@@ -1098,10 +1098,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.1115287550819683</v>
+        <v>0.111456187407855</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1258560705249558</v>
+        <v>0.1258724663323297</v>
       </c>
     </row>
     <row r="30">
@@ -1121,10 +1121,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.0004346271888243585</v>
+        <v>0.0004388105450798972</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0006556226257056333</v>
+        <v>0.0006553653231593847</v>
       </c>
     </row>
     <row r="31">
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.9442609332753074</v>
+        <v>0.9442199829513078</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9504387175581873</v>
+        <v>0.9504591204711226</v>
       </c>
     </row>
     <row r="32">
@@ -1190,10 +1190,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.0489329957394025</v>
+        <v>0.04889089499272618</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05522235574206023</v>
+        <v>0.05522828884384646</v>
       </c>
     </row>
     <row r="34">
@@ -1213,10 +1213,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.04148557022088875</v>
+        <v>0.04134713215910957</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0606515475582106</v>
+        <v>0.06064772426985957</v>
       </c>
     </row>
     <row r="35">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.6835240424180792</v>
+        <v>0.6843945177027221</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7233431339641376</v>
+        <v>0.7233278376938893</v>
       </c>
     </row>
     <row r="36">
@@ -1259,10 +1259,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.03287002923945942</v>
+        <v>0.03288621013657493</v>
       </c>
       <c r="E36" t="n">
-        <v>0.03354153039871426</v>
+        <v>0.03354104950499643</v>
       </c>
     </row>
     <row r="37">
@@ -1282,10 +1282,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.197125891392104</v>
+        <v>0.1975805710535344</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2270367114728491</v>
+        <v>0.2269423153422114</v>
       </c>
     </row>
     <row r="38">
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.02763480845820044</v>
+        <v>0.0275162454258322</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0473189899977727</v>
+        <v>0.04731554410364143</v>
       </c>
     </row>
     <row r="39">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.7455359285180944</v>
+        <v>0.7462718271229709</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7819626771082676</v>
+        <v>0.7819408042825237</v>
       </c>
     </row>
     <row r="40">
@@ -1351,10 +1351,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.02661327619278292</v>
+        <v>0.02662701443320487</v>
       </c>
       <c r="E40" t="n">
-        <v>0.02715685023435116</v>
+        <v>0.02715627306143717</v>
       </c>
     </row>
     <row r="41">
@@ -1374,10 +1374,10 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.1596225607804477</v>
+        <v>0.1599594845610439</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1838199359980338</v>
+        <v>0.1837422375143574</v>
       </c>
     </row>
     <row r="42">
@@ -1397,10 +1397,10 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.268616473864653</v>
+        <v>0.26858931735935</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2836596120041877</v>
+        <v>0.2836597556167222</v>
       </c>
     </row>
     <row r="43">
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.6917951765087846</v>
+        <v>0.6917808714739181</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7087745251951076</v>
+        <v>0.7088269818432306</v>
       </c>
     </row>
     <row r="44">
@@ -1443,10 +1443,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.003161587389680953</v>
+        <v>0.003160590900994513</v>
       </c>
       <c r="E44" t="n">
-        <v>0.003226522521716302</v>
+        <v>0.003226419826716119</v>
       </c>
     </row>
     <row r="45">
@@ -1466,10 +1466,10 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.01888948786686474</v>
+        <v>0.01903653655720737</v>
       </c>
       <c r="E45" t="n">
-        <v>0.02183976264993662</v>
+        <v>0.02183030037959603</v>
       </c>
     </row>
     <row r="46">
@@ -1489,10 +1489,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.5545695788063475</v>
+        <v>0.5543412090616442</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5634216175176955</v>
+        <v>0.5634436598302583</v>
       </c>
     </row>
     <row r="47">
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.00286509644796061</v>
+        <v>0.003932791386752076</v>
       </c>
       <c r="E47" t="n">
-        <v>0.04656797519002113</v>
+        <v>0.04664836504252636</v>
       </c>
     </row>
     <row r="48">
@@ -1535,10 +1535,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.05575462293574658</v>
+        <v>0.0557744031100575</v>
       </c>
       <c r="E48" t="n">
-        <v>0.05689502209665771</v>
+        <v>0.05689647372077088</v>
       </c>
     </row>
     <row r="49">
@@ -1558,10 +1558,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.3340861628436181</v>
+        <v>0.3352724041710562</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3851123834377995</v>
+        <v>0.3849676045192195</v>
       </c>
     </row>
     <row r="50">
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.4605995275266173</v>
+        <v>0.4603529280281532</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4710828673473726</v>
+        <v>0.4710997005204751</v>
       </c>
     </row>
     <row r="51">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.05669294196318838</v>
+        <v>0.05792929508590967</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1051503432854378</v>
+        <v>0.1052138031620485</v>
       </c>
     </row>
     <row r="52">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.0606999659280408</v>
+        <v>0.06072343544093786</v>
       </c>
       <c r="E52" t="n">
-        <v>0.06194125517643777</v>
+        <v>0.06194294117149207</v>
       </c>
     </row>
     <row r="53">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.3637706012725751</v>
+        <v>0.3649923894020214</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4192694463427969</v>
+        <v>0.4191125410810636</v>
       </c>
     </row>
     <row r="54">
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.185286840442471</v>
+        <v>0.1851319268717922</v>
       </c>
       <c r="E54" t="n">
-        <v>0.202297698121465</v>
+        <v>0.2023068121519861</v>
       </c>
     </row>
     <row r="55">
@@ -1696,10 +1696,10 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.2585116654560218</v>
+        <v>0.2596022877672857</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3185978854634746</v>
+        <v>0.3188242194847372</v>
       </c>
     </row>
     <row r="56">
@@ -1719,10 +1719,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.06932754159764266</v>
+        <v>0.06934759092540539</v>
       </c>
       <c r="E56" t="n">
-        <v>0.07074627762997118</v>
+        <v>0.07075013084495411</v>
       </c>
     </row>
     <row r="57">
@@ -1742,10 +1742,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.4153321845983129</v>
+        <v>0.4170191585405008</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4788690924690052</v>
+        <v>0.4787029249733671</v>
       </c>
     </row>
     <row r="58">
@@ -1765,10 +1765,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.01472280276769842</v>
+        <v>0.01461721124103146</v>
       </c>
       <c r="E58" t="n">
-        <v>0.03465431873858552</v>
+        <v>0.03465124059918459</v>
       </c>
     </row>
     <row r="59">
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.7781483859258375</v>
+        <v>0.7788276122758321</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8132150286796787</v>
+        <v>0.8131908939059622</v>
       </c>
     </row>
     <row r="60">
@@ -1811,10 +1811,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.02404935892311501</v>
+        <v>0.02406209292176482</v>
       </c>
       <c r="E60" t="n">
-        <v>0.02454051014371467</v>
+        <v>0.02453992498923006</v>
       </c>
     </row>
     <row r="61">
@@ -1834,10 +1834,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.1442566103301869</v>
+        <v>0.1445437981585381</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1661103907503473</v>
+        <v>0.1660397476396932</v>
       </c>
     </row>
     <row r="62">
@@ -1857,10 +1857,10 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.5057178679233415</v>
+        <v>0.505613759602612</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5165236308576158</v>
+        <v>0.5165335684058443</v>
       </c>
     </row>
     <row r="63">
@@ -1880,10 +1880,10 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.3068953447856236</v>
+        <v>0.307195150173041</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3318238469770399</v>
+        <v>0.3319296185938961</v>
       </c>
     </row>
     <row r="64">
@@ -1903,10 +1903,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.02271083103686149</v>
+        <v>0.02271455160367672</v>
       </c>
       <c r="E64" t="n">
-        <v>0.02317586006054072</v>
+        <v>0.02317574299179291</v>
       </c>
     </row>
     <row r="65">
@@ -1926,10 +1926,10 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.1359820337320039</v>
+        <v>0.1366128471680393</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1568733146983004</v>
+        <v>0.1568095468673402</v>
       </c>
     </row>
   </sheetData>
